--- a/xgb_results_lasso.xlsx
+++ b/xgb_results_lasso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>Trees</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>num_vars</t>
+  </si>
+  <si>
+    <t>Neg Accuracy</t>
   </si>
   <si>
     <t>2</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,16 +456,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0.641</v>
@@ -473,16 +479,19 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>0.656</v>
@@ -493,16 +502,19 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0.672</v>
@@ -513,16 +525,19 @@
       <c r="F4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0.6850000000000001</v>
@@ -533,16 +548,19 @@
       <c r="F5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.003674219228413962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0.641</v>
@@ -553,16 +571,19 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0.66</v>
@@ -573,16 +594,19 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0.677</v>
@@ -593,16 +617,19 @@
       <c r="F8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0.6899999999999999</v>
@@ -613,16 +640,19 @@
       <c r="F9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.003368034292712799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>0.652</v>
@@ -633,16 +663,19 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>0.663</v>
@@ -653,16 +686,19 @@
       <c r="F11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0.679</v>
@@ -673,16 +709,19 @@
       <c r="F12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>0.6919999999999999</v>
@@ -693,16 +732,19 @@
       <c r="F13">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.002755664421310471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>0.654</v>
@@ -713,16 +755,19 @@
       <c r="F14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>0.668</v>
@@ -733,16 +778,19 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>0.6820000000000001</v>
@@ -753,16 +801,19 @@
       <c r="F16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>0.694</v>
@@ -773,16 +824,19 @@
       <c r="F17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0.002755664421310471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>0.657</v>
@@ -793,16 +847,19 @@
       <c r="F18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>0.67</v>
@@ -813,16 +870,19 @@
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>0.6840000000000001</v>
@@ -833,16 +893,19 @@
       <c r="F20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>0.695</v>
@@ -853,16 +916,19 @@
       <c r="F21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0.002755664421310471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>0.658</v>
@@ -873,16 +939,19 @@
       <c r="F22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>0.675</v>
@@ -893,16 +962,19 @@
       <c r="F23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>0.6850000000000001</v>
@@ -913,16 +985,19 @@
       <c r="F24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>0.697</v>
@@ -933,16 +1008,19 @@
       <c r="F25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>0.002449479485609308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>0.66</v>
@@ -953,16 +1031,19 @@
       <c r="F26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>0.676</v>
@@ -973,16 +1054,19 @@
       <c r="F27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>0.6850000000000001</v>
@@ -993,16 +1077,19 @@
       <c r="F28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>0.7</v>
@@ -1013,16 +1100,19 @@
       <c r="F29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>0.002143294549908145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>0.66</v>
@@ -1033,16 +1123,19 @@
       <c r="F30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>0.676</v>
@@ -1053,16 +1146,19 @@
       <c r="F31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>0.6870000000000001</v>
@@ -1073,16 +1169,19 @@
       <c r="F32">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>0.702</v>
@@ -1093,16 +1192,19 @@
       <c r="F33">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0.001837109614206981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>0.661</v>
@@ -1113,16 +1215,19 @@
       <c r="F34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>0.678</v>
@@ -1133,16 +1238,19 @@
       <c r="F35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>0.6899999999999999</v>
@@ -1153,16 +1261,19 @@
       <c r="F36">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>0.705</v>
@@ -1173,16 +1284,19 @@
       <c r="F37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0.001837109614206981</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>0.664</v>
@@ -1193,16 +1307,19 @@
       <c r="F38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>0.679</v>
@@ -1213,16 +1330,19 @@
       <c r="F39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>0.6919999999999999</v>
@@ -1233,16 +1353,19 @@
       <c r="F40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>0.707</v>
@@ -1253,16 +1376,19 @@
       <c r="F41">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>0.001530924678505817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>0.67</v>
@@ -1273,16 +1399,19 @@
       <c r="F42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>0.6840000000000001</v>
@@ -1293,16 +1422,19 @@
       <c r="F43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>0.694</v>
@@ -1313,16 +1445,19 @@
       <c r="F44">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>0.71</v>
@@ -1333,16 +1468,19 @@
       <c r="F45">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0.001224739742804654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>0.677</v>
@@ -1353,16 +1491,19 @@
       <c r="F46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>0.6860000000000001</v>
@@ -1373,16 +1514,19 @@
       <c r="F47">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>0.7</v>
@@ -1393,16 +1537,19 @@
       <c r="F48">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>0.716</v>
@@ -1412,6 +1559,9 @@
       </c>
       <c r="F49">
         <v>31</v>
+      </c>
+      <c r="G49">
+        <v>0.001530924678505817</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_results_lasso.xlsx
+++ b/xgb_results_lasso.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
   <si>
     <t>Trees</t>
   </si>
@@ -34,7 +34,13 @@
     <t>num_vars</t>
   </si>
   <si>
+    <t>Pos Accuracy</t>
+  </si>
+  <si>
     <t>Neg Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>2</t>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,16 +465,22 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0.641</v>
@@ -480,18 +492,24 @@
         <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>0.656</v>
@@ -503,18 +521,24 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0.672</v>
@@ -526,18 +550,24 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0.6850000000000001</v>
@@ -549,18 +579,24 @@
         <v>17</v>
       </c>
       <c r="G5">
-        <v>0.003674219228413962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.999</v>
+      </c>
+      <c r="H5">
+        <v>0.004</v>
+      </c>
+      <c r="I5">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>0.641</v>
@@ -572,18 +608,24 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0.66</v>
@@ -595,18 +637,24 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>0.677</v>
@@ -618,18 +666,24 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0.6899999999999999</v>
@@ -641,18 +695,24 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <v>0.003368034292712799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.003</v>
+      </c>
+      <c r="I9">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>0.652</v>
@@ -664,18 +724,24 @@
         <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>0.663</v>
@@ -687,18 +753,24 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>0.679</v>
@@ -710,18 +782,24 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>0.6919999999999999</v>
@@ -733,18 +811,24 @@
         <v>18</v>
       </c>
       <c r="G13">
-        <v>0.002755664421310471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0.003</v>
+      </c>
+      <c r="I13">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>0.654</v>
@@ -756,18 +840,24 @@
         <v>3</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>0.668</v>
@@ -779,18 +869,24 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>0.6820000000000001</v>
@@ -802,18 +898,24 @@
         <v>14</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>0.694</v>
@@ -825,18 +927,24 @@
         <v>18</v>
       </c>
       <c r="G17">
-        <v>0.002755664421310471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0.003</v>
+      </c>
+      <c r="I17">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>0.657</v>
@@ -848,18 +956,24 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19">
         <v>0.67</v>
@@ -871,18 +985,24 @@
         <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>0.6840000000000001</v>
@@ -894,18 +1014,24 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>0.695</v>
@@ -917,18 +1043,24 @@
         <v>19</v>
       </c>
       <c r="G21">
-        <v>0.002755664421310471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.003</v>
+      </c>
+      <c r="I21">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>0.658</v>
@@ -940,18 +1072,24 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>0.675</v>
@@ -963,18 +1101,24 @@
         <v>8</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>0.6850000000000001</v>
@@ -986,18 +1130,24 @@
         <v>14</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>0.697</v>
@@ -1009,18 +1159,24 @@
         <v>25</v>
       </c>
       <c r="G25">
-        <v>0.002449479485609308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0.002</v>
+      </c>
+      <c r="I25">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>0.66</v>
@@ -1032,18 +1188,24 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0.676</v>
@@ -1055,18 +1217,24 @@
         <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28">
         <v>0.6850000000000001</v>
@@ -1078,18 +1246,24 @@
         <v>14</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>0.7</v>
@@ -1101,18 +1275,24 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>0.002143294549908145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0.002</v>
+      </c>
+      <c r="I29">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>0.66</v>
@@ -1124,18 +1304,24 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>0.676</v>
@@ -1147,18 +1333,24 @@
         <v>9</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>0.6870000000000001</v>
@@ -1170,18 +1362,24 @@
         <v>15</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>0.702</v>
@@ -1193,18 +1391,24 @@
         <v>30</v>
       </c>
       <c r="G33">
-        <v>0.001837109614206981</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0.002</v>
+      </c>
+      <c r="I33">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>0.661</v>
@@ -1216,18 +1420,24 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>0.678</v>
@@ -1239,18 +1449,24 @@
         <v>9</v>
       </c>
       <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>0.6899999999999999</v>
@@ -1262,18 +1478,24 @@
         <v>17</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37">
         <v>0.705</v>
@@ -1285,18 +1507,24 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <v>0.001837109614206981</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0.002</v>
+      </c>
+      <c r="I37">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38">
         <v>0.664</v>
@@ -1308,18 +1536,24 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>0.679</v>
@@ -1331,18 +1565,24 @@
         <v>10</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40">
         <v>0.6919999999999999</v>
@@ -1354,18 +1594,24 @@
         <v>18</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41">
         <v>0.707</v>
@@ -1377,18 +1623,24 @@
         <v>31</v>
       </c>
       <c r="G41">
-        <v>0.001530924678505817</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0.002</v>
+      </c>
+      <c r="I41">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>0.67</v>
@@ -1400,18 +1652,24 @@
         <v>6</v>
       </c>
       <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D43">
         <v>0.6840000000000001</v>
@@ -1423,18 +1681,24 @@
         <v>12</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>0.694</v>
@@ -1446,18 +1710,24 @@
         <v>19</v>
       </c>
       <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D45">
         <v>0.71</v>
@@ -1469,18 +1739,24 @@
         <v>31</v>
       </c>
       <c r="G45">
-        <v>0.001224739742804654</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0.001</v>
+      </c>
+      <c r="I45">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>0.677</v>
@@ -1492,18 +1768,24 @@
         <v>7</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47">
         <v>0.6860000000000001</v>
@@ -1515,18 +1797,24 @@
         <v>13</v>
       </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D48">
         <v>0.7</v>
@@ -1538,18 +1826,24 @@
         <v>19</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>0.716</v>
@@ -1561,7 +1855,13 @@
         <v>31</v>
       </c>
       <c r="G49">
-        <v>0.001530924678505817</v>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.002</v>
+      </c>
+      <c r="I49">
+        <v>0.003</v>
       </c>
     </row>
   </sheetData>
